--- a/Dataset/Authors/APUL_Plat.xlsx
+++ b/Dataset/Authors/APUL_Plat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929AF26-B278-4A45-930C-8D2170D4DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7FEC44-05D4-40E9-A438-CA617101ADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Apuleius Madaurensis Afer</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Compounds</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -754,10 +757,10 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="8"/>
@@ -788,7 +791,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -821,7 +824,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -854,7 +857,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -887,7 +890,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -920,7 +923,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -953,10 +956,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -986,10 +989,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -1052,10 +1055,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1085,10 +1088,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1118,7 +1121,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -1184,7 +1187,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -1217,10 +1220,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1250,10 +1253,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1283,10 +1286,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1316,7 +1319,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -1349,7 +1352,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -1382,7 +1385,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -1448,7 +1451,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -1514,7 +1517,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -1547,10 +1550,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1580,10 +1583,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1613,7 +1616,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -1646,7 +1649,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
@@ -1712,10 +1715,10 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1745,10 +1748,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1778,10 +1781,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1811,10 +1814,10 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1844,10 +1847,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -1943,10 +1946,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1976,10 +1979,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2009,10 +2012,10 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2042,10 +2045,10 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2075,10 +2078,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2108,10 +2111,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2141,10 +2144,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2174,10 +2177,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2207,10 +2210,10 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2240,7 +2243,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8">
         <v>1</v>
@@ -2271,7 +2274,18 @@
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
     </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B52">
+    <sortCondition ref="A52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>